--- a/Pubmed/CCHF/Pubmed.xlsx
+++ b/Pubmed/CCHF/Pubmed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC214"/>
+  <dimension ref="A1:AD214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,12 +571,17 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>Specimen</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>MedianYear</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>RefID</t>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>LitID</t>
         </is>
       </c>
     </row>
@@ -650,7 +655,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Tick, sheep</t>
+          <t>Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -704,10 +709,15 @@
           <t>brain</t>
         </is>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>brain</t>
+        </is>
+      </c>
+      <c r="AC2" t="n">
         <v>1990</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -819,10 +829,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC3" t="n">
         <v>1993</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -896,7 +911,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>human, ticks,  animals</t>
+          <t>Animal and Ticks</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -942,10 +957,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC4" t="n">
         <v>1994</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1019,7 +1039,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Homo sapiens, tick</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1066,10 +1086,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
         <v>1974</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1193,10 +1218,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
         <v>2000</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1270,7 +1300,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Homo sapiens, rodent, tick</t>
+          <t>Homo sapiens and Rodent and Ticks</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1316,10 +1346,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
         <v>1978</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1397,7 +1432,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Homo sapiens, tick</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1435,10 +1470,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
         <v>1971</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1562,10 +1602,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
         <v>2001</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1689,10 +1734,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
         <v>2001</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1766,7 +1816,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Homo sapiens, tick</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1816,10 +1866,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
         <v>2000</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1893,7 +1948,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Homo sapiens, tick</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1943,10 +1998,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC12" t="n">
         <v>1995</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2022,7 +2082,11 @@
           <t>14</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
@@ -2062,8 +2126,13 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="n">
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2137,7 +2206,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>tick, Homo sapiens</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2185,10 +2254,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC14" t="n">
         <v>1995</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2258,7 +2332,7 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>SW13 cells</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
@@ -2300,8 +2374,13 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="n">
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2379,7 +2458,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>tick</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -2421,10 +2500,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC16" t="n">
         <v>1966</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
         <v>15</v>
       </c>
     </row>
@@ -2548,10 +2632,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC17" t="n">
         <v>1976</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AD17" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2679,10 +2768,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC18" t="n">
         <v>2022</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AD18" t="n">
         <v>17</v>
       </c>
     </row>
@@ -2756,7 +2850,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Homo sapiens, tick</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2807,10 +2901,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC19" t="n">
         <v>2002</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AD19" t="n">
         <v>18</v>
       </c>
     </row>
@@ -2884,7 +2983,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Homo sapiens, tick</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2937,10 +3036,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC20" t="n">
         <v>1973</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AD20" t="n">
         <v>19</v>
       </c>
     </row>
@@ -3056,10 +3160,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC21" t="n">
         <v>2002</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AD21" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3175,10 +3284,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB22" t="n">
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC22" t="n">
         <v>2002</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AD22" t="n">
         <v>21</v>
       </c>
     </row>
@@ -3252,7 +3366,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Homo sapiens, tick</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -3310,10 +3424,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB23" t="n">
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC23" t="n">
         <v>2000</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AD23" t="n">
         <v>22</v>
       </c>
     </row>
@@ -3429,10 +3548,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB24" t="n">
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC24" t="n">
         <v>1990</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AD24" t="n">
         <v>23</v>
       </c>
     </row>
@@ -3552,10 +3676,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB25" t="n">
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC25" t="n">
         <v>2001</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AD25" t="n">
         <v>24</v>
       </c>
     </row>
@@ -3663,10 +3792,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB26" t="n">
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC26" t="n">
         <v>2000</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AD26" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3744,7 +3878,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Homo sapiens, tick, sheep, jerboa</t>
+          <t>Homo sapiens and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -3788,10 +3922,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB27" t="n">
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC27" t="n">
         <v>1978</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AD27" t="n">
         <v>26</v>
       </c>
     </row>
@@ -3865,7 +4004,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Homo sapiens, tick</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -3907,10 +4046,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB28" t="n">
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC28" t="n">
         <v>1993</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AD28" t="n">
         <v>27</v>
       </c>
     </row>
@@ -3984,7 +4128,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Homo sapiens, tick</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -4034,10 +4178,15 @@
           <t>brain</t>
         </is>
       </c>
-      <c r="AB29" t="n">
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>brain</t>
+        </is>
+      </c>
+      <c r="AC29" t="n">
         <v>2000</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AD29" t="n">
         <v>28</v>
       </c>
     </row>
@@ -4111,7 +4260,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Homo sapiens, ticks</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -4149,10 +4298,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB30" t="n">
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC30" t="n">
         <v>1974</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AD30" t="n">
         <v>29</v>
       </c>
     </row>
@@ -4226,7 +4380,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Homo sapiens,  tick </t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -4277,10 +4431,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB31" t="n">
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
         <v>1980</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AD31" t="n">
         <v>30</v>
       </c>
     </row>
@@ -4354,7 +4513,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Homo sapiens, tick</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -4404,10 +4563,15 @@
           <t>blood and spleen</t>
         </is>
       </c>
-      <c r="AB32" t="n">
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>blood and spleen</t>
+        </is>
+      </c>
+      <c r="AC32" t="n">
         <v>1990</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AD32" t="n">
         <v>31</v>
       </c>
     </row>
@@ -4531,10 +4695,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB33" t="n">
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC33" t="n">
         <v>2002</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AD33" t="n">
         <v>32</v>
       </c>
     </row>
@@ -4608,7 +4777,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Homo sapiens, sheep, goats, and tick species</t>
+          <t>Goat and Homo sapiens and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -4658,10 +4827,15 @@
           <t>brain</t>
         </is>
       </c>
-      <c r="AB34" t="n">
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>brain</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
         <v>1975</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AD34" t="n">
         <v>33</v>
       </c>
     </row>
@@ -4735,7 +4909,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Ticks collected from cattle, sheep, and goats</t>
+          <t>Cattle and Goat and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -4785,10 +4959,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB35" t="n">
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
         <v>2005</v>
       </c>
-      <c r="AC35" t="n">
+      <c r="AD35" t="n">
         <v>34</v>
       </c>
     </row>
@@ -4862,7 +5041,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Homo sapiens, tick</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -4912,10 +5091,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB36" t="n">
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC36" t="n">
         <v>2005</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AD36" t="n">
         <v>35</v>
       </c>
     </row>
@@ -5035,10 +5219,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB37" t="n">
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
         <v>2001</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AD37" t="n">
         <v>36</v>
       </c>
     </row>
@@ -5112,7 +5301,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Homo sapiens, animals</t>
+          <t>Animal and Homo sapiens</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -5166,10 +5355,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB38" t="n">
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC38" t="n">
         <v>1993</v>
       </c>
-      <c r="AC38" t="n">
+      <c r="AD38" t="n">
         <v>37</v>
       </c>
     </row>
@@ -5247,7 +5441,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>ticks</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -5293,10 +5487,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB39" t="n">
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC39" t="n">
         <v>2005</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AD39" t="n">
         <v>38</v>
       </c>
     </row>
@@ -5420,10 +5619,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB40" t="n">
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC40" t="n">
         <v>2007</v>
       </c>
-      <c r="AC40" t="n">
+      <c r="AD40" t="n">
         <v>39</v>
       </c>
     </row>
@@ -5547,10 +5751,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB41" t="n">
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC41" t="n">
         <v>2008</v>
       </c>
-      <c r="AC41" t="n">
+      <c r="AD41" t="n">
         <v>40</v>
       </c>
     </row>
@@ -5624,7 +5833,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Homo sapiens, tick</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -5670,10 +5879,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB42" t="n">
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC42" t="n">
         <v>1992</v>
       </c>
-      <c r="AC42" t="n">
+      <c r="AD42" t="n">
         <v>41</v>
       </c>
     </row>
@@ -5790,10 +6004,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB43" t="n">
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC43" t="n">
         <v>2008</v>
       </c>
-      <c r="AC43" t="n">
+      <c r="AD43" t="n">
         <v>42</v>
       </c>
     </row>
@@ -5921,10 +6140,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB44" t="n">
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC44" t="n">
         <v>2006</v>
       </c>
-      <c r="AC44" t="n">
+      <c r="AD44" t="n">
         <v>43</v>
       </c>
     </row>
@@ -6040,10 +6264,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB45" t="n">
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC45" t="n">
         <v>2007</v>
       </c>
-      <c r="AC45" t="n">
+      <c r="AD45" t="n">
         <v>44</v>
       </c>
     </row>
@@ -6167,10 +6396,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB46" t="n">
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC46" t="n">
         <v>2007</v>
       </c>
-      <c r="AC46" t="n">
+      <c r="AD46" t="n">
         <v>45</v>
       </c>
     </row>
@@ -6294,10 +6528,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB47" t="n">
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC47" t="n">
         <v>1994</v>
       </c>
-      <c r="AC47" t="n">
+      <c r="AD47" t="n">
         <v>46</v>
       </c>
     </row>
@@ -6413,10 +6652,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB48" t="n">
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC48" t="n">
         <v>2009</v>
       </c>
-      <c r="AC48" t="n">
+      <c r="AD48" t="n">
         <v>47</v>
       </c>
     </row>
@@ -6494,7 +6738,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Ticks from cattle</t>
+          <t>Cattle and Ticks</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -6540,10 +6784,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB49" t="n">
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC49" t="n">
         <v>2007</v>
       </c>
-      <c r="AC49" t="n">
+      <c r="AD49" t="n">
         <v>48</v>
       </c>
     </row>
@@ -6663,10 +6912,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB50" t="n">
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC50" t="n">
         <v>2009</v>
       </c>
-      <c r="AC50" t="n">
+      <c r="AD50" t="n">
         <v>49</v>
       </c>
     </row>
@@ -6778,10 +7032,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB51" t="n">
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC51" t="n">
         <v>1981</v>
       </c>
-      <c r="AC51" t="n">
+      <c r="AD51" t="n">
         <v>50</v>
       </c>
     </row>
@@ -6855,7 +7114,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Homo sapiens, animal</t>
+          <t>Animal and Homo sapiens</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -6889,10 +7148,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB52" t="n">
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC52" t="n">
         <v>2008</v>
       </c>
-      <c r="AC52" t="n">
+      <c r="AD52" t="n">
         <v>51</v>
       </c>
     </row>
@@ -6966,7 +7230,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>ticks, sheep</t>
+          <t>Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -7008,10 +7272,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB53" t="n">
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC53" t="n">
         <v>2007</v>
       </c>
-      <c r="AC53" t="n">
+      <c r="AD53" t="n">
         <v>52</v>
       </c>
     </row>
@@ -7128,10 +7397,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB54" t="n">
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC54" t="n">
         <v>2008</v>
       </c>
-      <c r="AC54" t="n">
+      <c r="AD54" t="n">
         <v>53</v>
       </c>
     </row>
@@ -7247,10 +7521,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB55" t="n">
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC55" t="n">
         <v>2010</v>
       </c>
-      <c r="AC55" t="n">
+      <c r="AD55" t="n">
         <v>54</v>
       </c>
     </row>
@@ -7330,7 +7609,11 @@
           <t>62</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Q56" t="inlineStr">
         <is>
           <t>2006</t>
@@ -7370,10 +7653,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB56" t="n">
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC56" t="n">
         <v>2006</v>
       </c>
-      <c r="AC56" t="n">
+      <c r="AD56" t="n">
         <v>55</v>
       </c>
     </row>
@@ -7490,10 +7778,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB57" t="n">
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC57" t="n">
         <v>2008</v>
       </c>
-      <c r="AC57" t="n">
+      <c r="AD57" t="n">
         <v>56</v>
       </c>
     </row>
@@ -7567,7 +7860,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>ticks, sheep, goats</t>
+          <t>Goat and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -7605,10 +7898,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB58" t="n">
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC58" t="n">
         <v>2008</v>
       </c>
-      <c r="AC58" t="n">
+      <c r="AD58" t="n">
         <v>57</v>
       </c>
     </row>
@@ -7732,10 +8030,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB59" t="n">
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC59" t="n">
         <v>2010</v>
       </c>
-      <c r="AC59" t="n">
+      <c r="AD59" t="n">
         <v>58</v>
       </c>
     </row>
@@ -7809,7 +8112,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Camel ticks</t>
+          <t>Camel and Ticks</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -7855,10 +8158,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB60" t="n">
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC60" t="n">
         <v>2009</v>
       </c>
-      <c r="AC60" t="n">
+      <c r="AD60" t="n">
         <v>59</v>
       </c>
     </row>
@@ -7932,7 +8240,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Ticks from adult red deer</t>
+          <t>Deer and Ticks</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -7974,10 +8282,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB61" t="n">
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC61" t="n">
         <v>2010</v>
       </c>
-      <c r="AC61" t="n">
+      <c r="AD61" t="n">
         <v>60</v>
       </c>
     </row>
@@ -8051,7 +8364,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Homo sapiens, animals, ticks</t>
+          <t>Animal and Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -8093,8 +8406,13 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="n">
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="n">
         <v>61</v>
       </c>
     </row>
@@ -8168,7 +8486,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>sheep</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -8214,10 +8532,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB63" t="n">
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC63" t="n">
         <v>2009</v>
       </c>
-      <c r="AC63" t="n">
+      <c r="AD63" t="n">
         <v>62</v>
       </c>
     </row>
@@ -8295,7 +8618,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Ticks from bird</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -8333,10 +8656,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB64" t="n">
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC64" t="n">
         <v>2009</v>
       </c>
-      <c r="AC64" t="n">
+      <c r="AD64" t="n">
         <v>63</v>
       </c>
     </row>
@@ -8410,7 +8738,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Homo sapiens, tick</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -8462,10 +8790,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB65" t="n">
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC65" t="n">
         <v>2010</v>
       </c>
-      <c r="AC65" t="n">
+      <c r="AD65" t="n">
         <v>64</v>
       </c>
     </row>
@@ -8589,10 +8922,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB66" t="n">
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC66" t="n">
         <v>2012</v>
       </c>
-      <c r="AC66" t="n">
+      <c r="AD66" t="n">
         <v>65</v>
       </c>
     </row>
@@ -8712,10 +9050,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB67" t="n">
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC67" t="n">
         <v>2005</v>
       </c>
-      <c r="AC67" t="n">
+      <c r="AD67" t="n">
         <v>66</v>
       </c>
     </row>
@@ -8793,7 +9136,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Homo sapiens, ticks, goats, and sheep</t>
+          <t>Goat and Homo sapiens and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -8837,10 +9180,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB68" t="n">
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC68" t="n">
         <v>1982</v>
       </c>
-      <c r="AC68" t="n">
+      <c r="AD68" t="n">
         <v>67</v>
       </c>
     </row>
@@ -8964,10 +9312,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB69" t="n">
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC69" t="n">
         <v>2012</v>
       </c>
-      <c r="AC69" t="n">
+      <c r="AD69" t="n">
         <v>68</v>
       </c>
     </row>
@@ -9087,10 +9440,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB70" t="n">
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC70" t="n">
         <v>2008</v>
       </c>
-      <c r="AC70" t="n">
+      <c r="AD70" t="n">
         <v>69</v>
       </c>
     </row>
@@ -9212,10 +9570,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB71" t="n">
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC71" t="n">
         <v>2012</v>
       </c>
-      <c r="AC71" t="n">
+      <c r="AD71" t="n">
         <v>70</v>
       </c>
     </row>
@@ -9335,10 +9698,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB72" t="n">
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC72" t="n">
         <v>2008</v>
       </c>
-      <c r="AC72" t="n">
+      <c r="AD72" t="n">
         <v>71</v>
       </c>
     </row>
@@ -9462,10 +9830,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB73" t="n">
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC73" t="n">
         <v>2010</v>
       </c>
-      <c r="AC73" t="n">
+      <c r="AD73" t="n">
         <v>72</v>
       </c>
     </row>
@@ -9575,8 +9948,13 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB74" t="inlineStr"/>
-      <c r="AC74" t="n">
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="n">
         <v>73</v>
       </c>
     </row>
@@ -9650,7 +10028,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Rodent, tick</t>
+          <t>Rodent and Ticks</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -9701,10 +10079,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB75" t="n">
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC75" t="n">
         <v>1992</v>
       </c>
-      <c r="AC75" t="n">
+      <c r="AD75" t="n">
         <v>74</v>
       </c>
     </row>
@@ -9780,7 +10163,11 @@
           <t>30</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Q76" t="inlineStr">
         <is>
           <t>1956, 1968, 1969, 1970, 1971, 1972, 1979, 2004</t>
@@ -9816,10 +10203,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB76" t="n">
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC76" t="n">
         <v>1970</v>
       </c>
-      <c r="AC76" t="n">
+      <c r="AD76" t="n">
         <v>75</v>
       </c>
     </row>
@@ -9943,10 +10335,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB77" t="n">
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC77" t="n">
         <v>2004</v>
       </c>
-      <c r="AC77" t="n">
+      <c r="AD77" t="n">
         <v>76</v>
       </c>
     </row>
@@ -10070,10 +10467,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB78" t="n">
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC78" t="n">
         <v>2002</v>
       </c>
-      <c r="AC78" t="n">
+      <c r="AD78" t="n">
         <v>77</v>
       </c>
     </row>
@@ -10147,7 +10549,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>ticks, totoise</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -10189,10 +10591,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB79" t="n">
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC79" t="n">
         <v>2006</v>
       </c>
-      <c r="AC79" t="n">
+      <c r="AD79" t="n">
         <v>78</v>
       </c>
     </row>
@@ -10266,7 +10673,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>ticks</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -10312,10 +10719,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB80" t="n">
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC80" t="n">
         <v>2012</v>
       </c>
-      <c r="AC80" t="n">
+      <c r="AD80" t="n">
         <v>79</v>
       </c>
     </row>
@@ -10389,9 +10801,7 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Homo sapiens infections (e.g., nosocomial or from abattoirs).
-Ticks (multiple isolates).
-Livestock/ticks (SPU497/88 and SPU44/08).</t>
+          <t>Homo sapiens and Livestock and Ticks</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -10454,10 +10864,15 @@
           <t>brain</t>
         </is>
       </c>
-      <c r="AB81" t="n">
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>brain</t>
+        </is>
+      </c>
+      <c r="AC81" t="n">
         <v>1996</v>
       </c>
-      <c r="AC81" t="n">
+      <c r="AD81" t="n">
         <v>80</v>
       </c>
     </row>
@@ -10531,7 +10946,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Tick from sheep</t>
+          <t>Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -10581,10 +10996,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB82" t="n">
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC82" t="n">
         <v>2012</v>
       </c>
-      <c r="AC82" t="n">
+      <c r="AD82" t="n">
         <v>81</v>
       </c>
     </row>
@@ -10658,7 +11078,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>ticks</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
@@ -10708,10 +11128,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB83" t="n">
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC83" t="n">
         <v>2012</v>
       </c>
-      <c r="AC83" t="n">
+      <c r="AD83" t="n">
         <v>82</v>
       </c>
     </row>
@@ -10827,10 +11252,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB84" t="n">
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC84" t="n">
         <v>2014</v>
       </c>
-      <c r="AC84" t="n">
+      <c r="AD84" t="n">
         <v>83</v>
       </c>
     </row>
@@ -10904,7 +11334,7 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Ticks from livestock, including goats, cattle, and sheep, as well as from pastures and Homo sapiens patients in some cases.</t>
+          <t>Cattle and Goat and Homo sapiens and Livestock and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
@@ -10954,10 +11384,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB85" t="n">
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC85" t="n">
         <v>2012</v>
       </c>
-      <c r="AC85" t="n">
+      <c r="AD85" t="n">
         <v>84</v>
       </c>
     </row>
@@ -11031,7 +11466,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>ticks, cows, sheep, goats</t>
+          <t>Cow and Goat and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
@@ -11069,10 +11504,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB86" t="n">
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC86" t="n">
         <v>2012</v>
       </c>
-      <c r="AC86" t="n">
+      <c r="AD86" t="n">
         <v>85</v>
       </c>
     </row>
@@ -11188,10 +11628,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB87" t="n">
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC87" t="n">
         <v>2013</v>
       </c>
-      <c r="AC87" t="n">
+      <c r="AD87" t="n">
         <v>86</v>
       </c>
     </row>
@@ -11309,10 +11754,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB88" t="n">
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC88" t="n">
         <v>2007</v>
       </c>
-      <c r="AC88" t="n">
+      <c r="AD88" t="n">
         <v>87</v>
       </c>
     </row>
@@ -11386,7 +11836,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>tick from livestock</t>
+          <t>Livestock and Ticks</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
@@ -11439,10 +11889,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB89" t="n">
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC89" t="n">
         <v>2013</v>
       </c>
-      <c r="AC89" t="n">
+      <c r="AD89" t="n">
         <v>88</v>
       </c>
     </row>
@@ -11562,10 +12017,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB90" t="n">
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC90" t="n">
         <v>2011</v>
       </c>
-      <c r="AC90" t="n">
+      <c r="AD90" t="n">
         <v>89</v>
       </c>
     </row>
@@ -11639,7 +12099,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Ticks collected from livestock and broiler chickens</t>
+          <t>Livestock and Ticks</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
@@ -11689,10 +12149,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB91" t="n">
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC91" t="n">
         <v>2012</v>
       </c>
-      <c r="AC91" t="n">
+      <c r="AD91" t="n">
         <v>90</v>
       </c>
     </row>
@@ -11816,10 +12281,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB92" t="n">
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC92" t="n">
         <v>2014</v>
       </c>
-      <c r="AC92" t="n">
+      <c r="AD92" t="n">
         <v>91</v>
       </c>
     </row>
@@ -11893,7 +12363,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>tick from livestock</t>
+          <t>Livestock and Ticks</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
@@ -11939,10 +12409,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB93" t="n">
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC93" t="n">
         <v>2012</v>
       </c>
-      <c r="AC93" t="n">
+      <c r="AD93" t="n">
         <v>92</v>
       </c>
     </row>
@@ -12016,7 +12491,7 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>tick, tortoise</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
@@ -12058,10 +12533,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB94" t="n">
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC94" t="n">
         <v>2010</v>
       </c>
-      <c r="AC94" t="n">
+      <c r="AD94" t="n">
         <v>93</v>
       </c>
     </row>
@@ -12139,7 +12619,7 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>ticks</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
@@ -12186,10 +12666,15 @@
           <t>spleen</t>
         </is>
       </c>
-      <c r="AB95" t="n">
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>spleen</t>
+        </is>
+      </c>
+      <c r="AC95" t="n">
         <v>2014</v>
       </c>
-      <c r="AC95" t="n">
+      <c r="AD95" t="n">
         <v>94</v>
       </c>
     </row>
@@ -12309,10 +12794,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB96" t="n">
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC96" t="n">
         <v>2015</v>
       </c>
-      <c r="AC96" t="n">
+      <c r="AD96" t="n">
         <v>95</v>
       </c>
     </row>
@@ -12436,10 +12926,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB97" t="n">
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC97" t="n">
         <v>2012</v>
       </c>
-      <c r="AC97" t="n">
+      <c r="AD97" t="n">
         <v>96</v>
       </c>
     </row>
@@ -12563,10 +13058,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB98" t="n">
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC98" t="n">
         <v>2008</v>
       </c>
-      <c r="AC98" t="n">
+      <c r="AD98" t="n">
         <v>97</v>
       </c>
     </row>
@@ -12636,7 +13136,7 @@
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Ticks from livestock animals, specifically cattle, sheep, and goats</t>
+          <t>Animal and Cattle and Goat and Livestock and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
@@ -12686,10 +13186,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB99" t="n">
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC99" t="n">
         <v>2014</v>
       </c>
-      <c r="AC99" t="n">
+      <c r="AD99" t="n">
         <v>98</v>
       </c>
     </row>
@@ -12763,7 +13268,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>ticks collected from livestock, including cattle, sheep, and goats</t>
+          <t>Cattle and Goat and Livestock and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
@@ -12805,10 +13310,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB100" t="n">
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC100" t="n">
         <v>2014</v>
       </c>
-      <c r="AC100" t="n">
+      <c r="AD100" t="n">
         <v>99</v>
       </c>
     </row>
@@ -12882,7 +13392,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>ticks</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
@@ -12924,10 +13434,15 @@
           <t>blood and spleen</t>
         </is>
       </c>
-      <c r="AB101" t="n">
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>blood and spleen</t>
+        </is>
+      </c>
+      <c r="AC101" t="n">
         <v>2016</v>
       </c>
-      <c r="AC101" t="n">
+      <c r="AD101" t="n">
         <v>100</v>
       </c>
     </row>
@@ -13001,7 +13516,7 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>mouse</t>
+          <t>Mouse</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
@@ -13051,10 +13566,15 @@
           <t>brain</t>
         </is>
       </c>
-      <c r="AB102" t="n">
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>brain</t>
+        </is>
+      </c>
+      <c r="AC102" t="n">
         <v>1979</v>
       </c>
-      <c r="AC102" t="n">
+      <c r="AD102" t="n">
         <v>101</v>
       </c>
     </row>
@@ -13174,10 +13694,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB103" t="n">
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC103" t="n">
         <v>2012</v>
       </c>
-      <c r="AC103" t="n">
+      <c r="AD103" t="n">
         <v>102</v>
       </c>
     </row>
@@ -13251,7 +13776,7 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Tick</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
@@ -13301,10 +13826,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB104" t="n">
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC104" t="n">
         <v>2004</v>
       </c>
-      <c r="AC104" t="n">
+      <c r="AD104" t="n">
         <v>103</v>
       </c>
     </row>
@@ -13378,7 +13908,7 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>cattle, goats, wild boar, and hare</t>
+          <t>Boar and Cattle and Goat and Hare and Ticks</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
@@ -13424,10 +13954,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB105" t="n">
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC105" t="n">
         <v>2014</v>
       </c>
-      <c r="AC105" t="n">
+      <c r="AD105" t="n">
         <v>104</v>
       </c>
     </row>
@@ -13551,10 +14086,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB106" t="n">
+      <c r="AB106" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC106" t="n">
         <v>2015</v>
       </c>
-      <c r="AC106" t="n">
+      <c r="AD106" t="n">
         <v>105</v>
       </c>
     </row>
@@ -13626,7 +14166,11 @@
           <t>8</t>
         </is>
       </c>
-      <c r="P107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr">
@@ -13662,8 +14206,13 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB107" t="inlineStr"/>
-      <c r="AC107" t="n">
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="n">
         <v>106</v>
       </c>
     </row>
@@ -13737,7 +14286,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>tick from cattle, sheep, goat, dog</t>
+          <t>Cattle and Goat and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
@@ -13788,10 +14337,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB108" t="n">
+      <c r="AB108" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC108" t="n">
         <v>2015</v>
       </c>
-      <c r="AC108" t="n">
+      <c r="AD108" t="n">
         <v>107</v>
       </c>
     </row>
@@ -13865,7 +14419,7 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>ticks, goat, sheep</t>
+          <t>Goat and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr"/>
@@ -13903,8 +14457,13 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB109" t="inlineStr"/>
-      <c r="AC109" t="n">
+      <c r="AB109" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC109" t="inlineStr"/>
+      <c r="AD109" t="n">
         <v>108</v>
       </c>
     </row>
@@ -13978,7 +14537,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Ticks on livestock, specifically goats, sheep, and cattle</t>
+          <t>Cattle and Goat and Livestock and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
@@ -14028,10 +14587,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB110" t="n">
+      <c r="AB110" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC110" t="n">
         <v>2010</v>
       </c>
-      <c r="AC110" t="n">
+      <c r="AD110" t="n">
         <v>109</v>
       </c>
     </row>
@@ -14105,7 +14669,7 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>tick</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
@@ -14155,10 +14719,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB111" t="n">
+      <c r="AB111" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC111" t="n">
         <v>2014</v>
       </c>
-      <c r="AC111" t="n">
+      <c r="AD111" t="n">
         <v>110</v>
       </c>
     </row>
@@ -14232,7 +14801,7 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>ticks from sheep and goats</t>
+          <t>Goat and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
@@ -14278,10 +14847,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB112" t="n">
+      <c r="AB112" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC112" t="n">
         <v>2013</v>
       </c>
-      <c r="AC112" t="n">
+      <c r="AD112" t="n">
         <v>111</v>
       </c>
     </row>
@@ -14355,7 +14929,7 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Homo sapiens, tick</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr">
@@ -14416,10 +14990,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB113" t="n">
+      <c r="AB113" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC113" t="n">
         <v>1992</v>
       </c>
-      <c r="AC113" t="n">
+      <c r="AD113" t="n">
         <v>112</v>
       </c>
     </row>
@@ -14541,10 +15120,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB114" t="n">
+      <c r="AB114" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC114" t="n">
         <v>2016</v>
       </c>
-      <c r="AC114" t="n">
+      <c r="AD114" t="n">
         <v>113</v>
       </c>
     </row>
@@ -14664,8 +15248,13 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB115" t="inlineStr"/>
-      <c r="AC115" t="n">
+      <c r="AB115" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC115" t="inlineStr"/>
+      <c r="AD115" t="n">
         <v>114</v>
       </c>
     </row>
@@ -14739,7 +15328,7 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>livestock, cow, sheep, goat</t>
+          <t>Cow and Goat and Livestock and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
@@ -14781,10 +15370,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB116" t="n">
+      <c r="AB116" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC116" t="n">
         <v>2015</v>
       </c>
-      <c r="AC116" t="n">
+      <c r="AD116" t="n">
         <v>115</v>
       </c>
     </row>
@@ -14858,7 +15452,7 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>cell culture</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr"/>
@@ -14903,8 +15497,13 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB117" t="inlineStr"/>
-      <c r="AC117" t="n">
+      <c r="AB117" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC117" t="inlineStr"/>
+      <c r="AD117" t="n">
         <v>116</v>
       </c>
     </row>
@@ -15016,10 +15615,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB118" t="n">
+      <c r="AB118" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC118" t="n">
         <v>2015</v>
       </c>
-      <c r="AC118" t="n">
+      <c r="AD118" t="n">
         <v>117</v>
       </c>
     </row>
@@ -15091,7 +15695,11 @@
           <t>282</t>
         </is>
       </c>
-      <c r="P119" t="inlineStr"/>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Q119" t="inlineStr">
         <is>
           <t>2016</t>
@@ -15132,10 +15740,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB119" t="n">
+      <c r="AB119" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC119" t="n">
         <v>2016</v>
       </c>
-      <c r="AC119" t="n">
+      <c r="AD119" t="n">
         <v>118</v>
       </c>
     </row>
@@ -15209,7 +15822,7 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>ticks</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
@@ -15260,10 +15873,15 @@
           <t>brain</t>
         </is>
       </c>
-      <c r="AB120" t="n">
+      <c r="AB120" t="inlineStr">
+        <is>
+          <t>brain</t>
+        </is>
+      </c>
+      <c r="AC120" t="n">
         <v>2016</v>
       </c>
-      <c r="AC120" t="n">
+      <c r="AD120" t="n">
         <v>119</v>
       </c>
     </row>
@@ -15337,7 +15955,7 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>ticks (Hyalomma asiaticum asiaticum, Dermacentor nuttalli, and Hyalomma detritum)</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
@@ -15387,10 +16005,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB121" t="n">
+      <c r="AB121" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC121" t="n">
         <v>2016</v>
       </c>
-      <c r="AC121" t="n">
+      <c r="AD121" t="n">
         <v>120</v>
       </c>
     </row>
@@ -15464,7 +16087,7 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>tick from a goat</t>
+          <t>Goat and Ticks</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
@@ -15514,10 +16137,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB122" t="n">
+      <c r="AB122" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC122" t="n">
         <v>2015</v>
       </c>
-      <c r="AC122" t="n">
+      <c r="AD122" t="n">
         <v>121</v>
       </c>
     </row>
@@ -15637,10 +16265,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB123" t="n">
+      <c r="AB123" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC123" t="n">
         <v>2017</v>
       </c>
-      <c r="AC123" t="n">
+      <c r="AD123" t="n">
         <v>122</v>
       </c>
     </row>
@@ -15764,10 +16397,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB124" t="n">
+      <c r="AB124" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC124" t="n">
         <v>2014</v>
       </c>
-      <c r="AC124" t="n">
+      <c r="AD124" t="n">
         <v>123</v>
       </c>
     </row>
@@ -15887,8 +16525,13 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB125" t="inlineStr"/>
-      <c r="AC125" t="n">
+      <c r="AB125" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC125" t="inlineStr"/>
+      <c r="AD125" t="n">
         <v>124</v>
       </c>
     </row>
@@ -15962,7 +16605,7 @@
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>Homo sapiens, ticks collected off horses, cattle, and small ruminants​</t>
+          <t>Cattle and Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
@@ -16012,10 +16655,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB126" t="n">
+      <c r="AB126" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC126" t="n">
         <v>2015</v>
       </c>
-      <c r="AC126" t="n">
+      <c r="AD126" t="n">
         <v>125</v>
       </c>
     </row>
@@ -16089,7 +16737,7 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>tick</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
@@ -16131,10 +16779,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB127" t="n">
+      <c r="AB127" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC127" t="n">
         <v>2014</v>
       </c>
-      <c r="AC127" t="n">
+      <c r="AD127" t="n">
         <v>126</v>
       </c>
     </row>
@@ -16260,10 +16913,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB128" t="n">
+      <c r="AB128" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC128" t="n">
         <v>2014</v>
       </c>
-      <c r="AC128" t="n">
+      <c r="AD128" t="n">
         <v>127</v>
       </c>
     </row>
@@ -16387,10 +17045,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB129" t="n">
+      <c r="AB129" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC129" t="n">
         <v>2014</v>
       </c>
-      <c r="AC129" t="n">
+      <c r="AD129" t="n">
         <v>128</v>
       </c>
     </row>
@@ -16464,7 +17127,7 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>ticks, red deer, cattle</t>
+          <t>Cattle and Deer and Ticks</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
@@ -16510,10 +17173,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB130" t="n">
+      <c r="AB130" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC130" t="n">
         <v>2013</v>
       </c>
-      <c r="AC130" t="n">
+      <c r="AD130" t="n">
         <v>129</v>
       </c>
     </row>
@@ -16633,10 +17301,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB131" t="n">
+      <c r="AB131" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC131" t="n">
         <v>2017</v>
       </c>
-      <c r="AC131" t="n">
+      <c r="AD131" t="n">
         <v>130</v>
       </c>
     </row>
@@ -16710,7 +17383,7 @@
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>sheep</t>
+          <t>Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
@@ -16756,10 +17429,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB132" t="n">
+      <c r="AB132" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC132" t="n">
         <v>2017</v>
       </c>
-      <c r="AC132" t="n">
+      <c r="AD132" t="n">
         <v>131</v>
       </c>
     </row>
@@ -16833,7 +17511,7 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>ticks, sheep</t>
+          <t>Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
@@ -16871,10 +17549,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB133" t="n">
+      <c r="AB133" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC133" t="n">
         <v>2017</v>
       </c>
-      <c r="AC133" t="n">
+      <c r="AD133" t="n">
         <v>132</v>
       </c>
     </row>
@@ -16948,7 +17631,7 @@
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
-          <t>Ticks, Buffalo</t>
+          <t>Buffalo and Ticks</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
@@ -16998,10 +17681,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB134" t="n">
+      <c r="AB134" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC134" t="n">
         <v>2016</v>
       </c>
-      <c r="AC134" t="n">
+      <c r="AD134" t="n">
         <v>133</v>
       </c>
     </row>
@@ -17075,7 +17763,7 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>lab strain</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr"/>
@@ -17113,8 +17801,13 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB135" t="inlineStr"/>
-      <c r="AC135" t="n">
+      <c r="AB135" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC135" t="inlineStr"/>
+      <c r="AD135" t="n">
         <v>134</v>
       </c>
     </row>
@@ -17188,7 +17881,7 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>tortoise, ticks</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
@@ -17234,10 +17927,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB136" t="n">
+      <c r="AB136" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC136" t="n">
         <v>2017</v>
       </c>
-      <c r="AC136" t="n">
+      <c r="AD136" t="n">
         <v>135</v>
       </c>
     </row>
@@ -17311,7 +18009,7 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>Homo sapiens, ticks</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
@@ -17361,10 +18059,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB137" t="n">
+      <c r="AB137" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC137" t="n">
         <v>2019</v>
       </c>
-      <c r="AC137" t="n">
+      <c r="AD137" t="n">
         <v>136</v>
       </c>
     </row>
@@ -17488,10 +18191,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB138" t="n">
+      <c r="AB138" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC138" t="n">
         <v>2019</v>
       </c>
-      <c r="AC138" t="n">
+      <c r="AD138" t="n">
         <v>137</v>
       </c>
     </row>
@@ -17611,10 +18319,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB139" t="n">
+      <c r="AB139" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC139" t="n">
         <v>2017</v>
       </c>
-      <c r="AC139" t="n">
+      <c r="AD139" t="n">
         <v>138</v>
       </c>
     </row>
@@ -17688,7 +18401,7 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>tick, cattle, goats, dogs, lizards, tortoises</t>
+          <t>Cattle and Goat and Ticks</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
@@ -17734,10 +18447,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB140" t="n">
+      <c r="AB140" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC140" t="n">
         <v>2016</v>
       </c>
-      <c r="AC140" t="n">
+      <c r="AD140" t="n">
         <v>139</v>
       </c>
     </row>
@@ -17811,7 +18529,7 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>Ticks collected from deer (Cervus elaphus, Capreolus capreolus, Dama dama) and wild boar (Sus scrofa)</t>
+          <t>Boar and Deer and Ticks</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
@@ -17861,10 +18579,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB141" t="n">
+      <c r="AB141" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC141" t="n">
         <v>2017</v>
       </c>
-      <c r="AC141" t="n">
+      <c r="AD141" t="n">
         <v>140</v>
       </c>
     </row>
@@ -17938,7 +18661,7 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>ticks, cow</t>
+          <t>Cow and Ticks</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
@@ -17986,10 +18709,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB142" t="n">
+      <c r="AB142" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC142" t="n">
         <v>2012</v>
       </c>
-      <c r="AC142" t="n">
+      <c r="AD142" t="n">
         <v>141</v>
       </c>
     </row>
@@ -18059,7 +18787,7 @@
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
-          <t>ticks, cattle</t>
+          <t>Cattle and Ticks</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr"/>
@@ -18097,8 +18825,13 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB143" t="inlineStr"/>
-      <c r="AC143" t="n">
+      <c r="AB143" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC143" t="inlineStr"/>
+      <c r="AD143" t="n">
         <v>142</v>
       </c>
     </row>
@@ -18210,10 +18943,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB144" t="n">
+      <c r="AB144" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC144" t="n">
         <v>2019</v>
       </c>
-      <c r="AC144" t="n">
+      <c r="AD144" t="n">
         <v>143</v>
       </c>
     </row>
@@ -18287,7 +19025,7 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>camel</t>
+          <t>Camel</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
@@ -18339,10 +19077,15 @@
           <t>nasal swab</t>
         </is>
       </c>
-      <c r="AB145" t="n">
+      <c r="AB145" t="inlineStr">
+        <is>
+          <t>nasal swab</t>
+        </is>
+      </c>
+      <c r="AC145" t="n">
         <v>2016</v>
       </c>
-      <c r="AC145" t="n">
+      <c r="AD145" t="n">
         <v>144</v>
       </c>
     </row>
@@ -18416,7 +19159,7 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>ticks</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
@@ -18474,10 +19217,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB146" t="n">
+      <c r="AB146" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC146" t="n">
         <v>2014</v>
       </c>
-      <c r="AC146" t="n">
+      <c r="AD146" t="n">
         <v>145</v>
       </c>
     </row>
@@ -18551,7 +19299,7 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>Homo sapiens, tick</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
@@ -18597,10 +19345,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB147" t="n">
+      <c r="AB147" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC147" t="n">
         <v>2018</v>
       </c>
-      <c r="AC147" t="n">
+      <c r="AD147" t="n">
         <v>146</v>
       </c>
     </row>
@@ -18674,7 +19427,7 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>monkey</t>
+          <t>Monkey and Ticks</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
@@ -18720,10 +19473,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB148" t="n">
+      <c r="AB148" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC148" t="n">
         <v>2021</v>
       </c>
-      <c r="AC148" t="n">
+      <c r="AD148" t="n">
         <v>147</v>
       </c>
     </row>
@@ -18847,10 +19605,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB149" t="n">
+      <c r="AB149" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC149" t="n">
         <v>2015</v>
       </c>
-      <c r="AC149" t="n">
+      <c r="AD149" t="n">
         <v>148</v>
       </c>
     </row>
@@ -18970,10 +19733,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB150" t="n">
+      <c r="AB150" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC150" t="n">
         <v>2018</v>
       </c>
-      <c r="AC150" t="n">
+      <c r="AD150" t="n">
         <v>149</v>
       </c>
     </row>
@@ -19047,7 +19815,7 @@
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>African blue ticks (Rhipicephalus (Boophilus) decoloratus) feeding on cattle</t>
+          <t>Cattle and Ticks</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
@@ -19097,10 +19865,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB151" t="n">
+      <c r="AB151" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC151" t="n">
         <v>2019</v>
       </c>
-      <c r="AC151" t="n">
+      <c r="AD151" t="n">
         <v>150</v>
       </c>
     </row>
@@ -19174,7 +19947,7 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>ticks collected from domestic animals,  sheep, goats, cattle, buffalo.</t>
+          <t>Animal and Buffalo and Cattle and Goat and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr">
@@ -19224,10 +19997,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB152" t="n">
+      <c r="AB152" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC152" t="n">
         <v>2018</v>
       </c>
-      <c r="AC152" t="n">
+      <c r="AD152" t="n">
         <v>151</v>
       </c>
     </row>
@@ -19349,10 +20127,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB153" t="n">
+      <c r="AB153" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC153" t="n">
         <v>2018</v>
       </c>
-      <c r="AC153" t="n">
+      <c r="AD153" t="n">
         <v>152</v>
       </c>
     </row>
@@ -19426,7 +20209,7 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>ticks from sheep</t>
+          <t>Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
@@ -19476,10 +20259,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB154" t="n">
+      <c r="AB154" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC154" t="n">
         <v>2012</v>
       </c>
-      <c r="AC154" t="n">
+      <c r="AD154" t="n">
         <v>153</v>
       </c>
     </row>
@@ -19553,7 +20341,7 @@
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>ticks, cattle</t>
+          <t>Cattle and Ticks</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr">
@@ -19599,10 +20387,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB155" t="n">
+      <c r="AB155" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC155" t="n">
         <v>2016</v>
       </c>
-      <c r="AC155" t="n">
+      <c r="AD155" t="n">
         <v>154</v>
       </c>
     </row>
@@ -19676,7 +20469,7 @@
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>tick, cattle, camel</t>
+          <t>Camel and Cattle and Ticks</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr">
@@ -19714,10 +20507,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB156" t="n">
+      <c r="AB156" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC156" t="n">
         <v>2018</v>
       </c>
-      <c r="AC156" t="n">
+      <c r="AD156" t="n">
         <v>155</v>
       </c>
     </row>
@@ -19791,7 +20589,7 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ticks infesting dromedary camels</t>
+          <t>Camel and Ticks</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
@@ -19841,10 +20639,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB157" t="n">
+      <c r="AB157" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC157" t="n">
         <v>2019</v>
       </c>
-      <c r="AC157" t="n">
+      <c r="AD157" t="n">
         <v>156</v>
       </c>
     </row>
@@ -19918,7 +20721,7 @@
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>ticks from camel</t>
+          <t>Camel and Ticks</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
@@ -19964,10 +20767,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB158" t="n">
+      <c r="AB158" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC158" t="n">
         <v>2019</v>
       </c>
-      <c r="AC158" t="n">
+      <c r="AD158" t="n">
         <v>157</v>
       </c>
     </row>
@@ -20041,7 +20849,7 @@
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>Homo sapiens, tick pools</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
@@ -20093,10 +20901,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB159" t="n">
+      <c r="AB159" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC159" t="n">
         <v>2019</v>
       </c>
-      <c r="AC159" t="n">
+      <c r="AD159" t="n">
         <v>158</v>
       </c>
     </row>
@@ -20170,7 +20983,7 @@
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr">
         <is>
-          <t>ticks</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr"/>
@@ -20208,8 +21021,13 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB160" t="inlineStr"/>
-      <c r="AC160" t="n">
+      <c r="AB160" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC160" t="inlineStr"/>
+      <c r="AD160" t="n">
         <v>159</v>
       </c>
     </row>
@@ -20333,10 +21151,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB161" t="n">
+      <c r="AB161" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC161" t="n">
         <v>2018</v>
       </c>
-      <c r="AC161" t="n">
+      <c r="AD161" t="n">
         <v>160</v>
       </c>
     </row>
@@ -20410,7 +21233,7 @@
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>ticks collected from sheep and camels</t>
+          <t>Camel and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr">
@@ -20460,10 +21283,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB162" t="n">
+      <c r="AB162" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC162" t="n">
         <v>2015</v>
       </c>
-      <c r="AC162" t="n">
+      <c r="AD162" t="n">
         <v>161</v>
       </c>
     </row>
@@ -20537,7 +21365,7 @@
       </c>
       <c r="P163" t="inlineStr">
         <is>
-          <t>red deer, wild boar, fallow deer, mouflon, barbary sheep, livestock (cattle and goats)</t>
+          <t>Boar and Cattle and Deer and Goat and Livestock and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q163" t="inlineStr">
@@ -20583,10 +21411,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB163" t="n">
+      <c r="AB163" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC163" t="n">
         <v>2017</v>
       </c>
-      <c r="AC163" t="n">
+      <c r="AD163" t="n">
         <v>162</v>
       </c>
     </row>
@@ -20656,7 +21489,7 @@
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr">
         <is>
-          <t>ticks, cattle, sheep, dog, cats</t>
+          <t>Cattle and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr">
@@ -20702,10 +21535,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB164" t="n">
+      <c r="AB164" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC164" t="n">
         <v>2020</v>
       </c>
-      <c r="AC164" t="n">
+      <c r="AD164" t="n">
         <v>163</v>
       </c>
     </row>
@@ -20779,7 +21617,7 @@
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>ticks from camel</t>
+          <t>Camel and Ticks</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr">
@@ -20825,10 +21663,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB165" t="n">
+      <c r="AB165" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC165" t="n">
         <v>2020</v>
       </c>
-      <c r="AC165" t="n">
+      <c r="AD165" t="n">
         <v>164</v>
       </c>
     </row>
@@ -20902,7 +21745,7 @@
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>Homo sapiens, ticks, goats, and sheep</t>
+          <t>Goat and Homo sapiens and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr">
@@ -20952,10 +21795,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB166" t="n">
+      <c r="AB166" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC166" t="n">
         <v>2012</v>
       </c>
-      <c r="AC166" t="n">
+      <c r="AD166" t="n">
         <v>165</v>
       </c>
     </row>
@@ -21025,7 +21873,7 @@
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
         <is>
-          <t>Vero cell</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr"/>
@@ -21071,8 +21919,13 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB167" t="inlineStr"/>
-      <c r="AC167" t="n">
+      <c r="AB167" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC167" t="inlineStr"/>
+      <c r="AD167" t="n">
         <v>166</v>
       </c>
     </row>
@@ -21146,7 +21999,7 @@
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>ticks</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr">
@@ -21196,10 +22049,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB168" t="n">
+      <c r="AB168" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC168" t="n">
         <v>2021</v>
       </c>
-      <c r="AC168" t="n">
+      <c r="AD168" t="n">
         <v>167</v>
       </c>
     </row>
@@ -21307,10 +22165,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB169" t="n">
+      <c r="AB169" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC169" t="n">
         <v>2018</v>
       </c>
-      <c r="AC169" t="n">
+      <c r="AD169" t="n">
         <v>168</v>
       </c>
     </row>
@@ -21384,7 +22247,7 @@
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>ticks</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr">
@@ -21430,10 +22293,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB170" t="n">
+      <c r="AB170" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC170" t="n">
         <v>2022</v>
       </c>
-      <c r="AC170" t="n">
+      <c r="AD170" t="n">
         <v>169</v>
       </c>
     </row>
@@ -21507,7 +22375,7 @@
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>tick</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
@@ -21553,10 +22421,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB171" t="n">
+      <c r="AB171" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC171" t="n">
         <v>2018</v>
       </c>
-      <c r="AC171" t="n">
+      <c r="AD171" t="n">
         <v>170</v>
       </c>
     </row>
@@ -21626,7 +22499,7 @@
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr">
         <is>
-          <t>cattle, goats,  ticks</t>
+          <t>Cattle and Goat and Ticks</t>
         </is>
       </c>
       <c r="Q172" t="inlineStr">
@@ -21668,10 +22541,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB172" t="n">
+      <c r="AB172" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC172" t="n">
         <v>2018</v>
       </c>
-      <c r="AC172" t="n">
+      <c r="AD172" t="n">
         <v>171</v>
       </c>
     </row>
@@ -21790,10 +22668,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB173" t="n">
+      <c r="AB173" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC173" t="n">
         <v>2017</v>
       </c>
-      <c r="AC173" t="n">
+      <c r="AD173" t="n">
         <v>172</v>
       </c>
     </row>
@@ -21913,10 +22796,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB174" t="n">
+      <c r="AB174" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC174" t="n">
         <v>2020</v>
       </c>
-      <c r="AC174" t="n">
+      <c r="AD174" t="n">
         <v>173</v>
       </c>
     </row>
@@ -22040,10 +22928,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB175" t="n">
+      <c r="AB175" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC175" t="n">
         <v>2022</v>
       </c>
-      <c r="AC175" t="n">
+      <c r="AD175" t="n">
         <v>174</v>
       </c>
     </row>
@@ -22117,7 +23010,7 @@
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>domestic animals</t>
+          <t>Animal and Ticks</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
@@ -22163,10 +23056,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB176" t="n">
+      <c r="AB176" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC176" t="n">
         <v>2020</v>
       </c>
-      <c r="AC176" t="n">
+      <c r="AD176" t="n">
         <v>175</v>
       </c>
     </row>
@@ -22240,7 +23138,7 @@
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>cattle, sheep dog</t>
+          <t>Cattle and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
@@ -22286,10 +23184,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB177" t="n">
+      <c r="AB177" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC177" t="n">
         <v>2020</v>
       </c>
-      <c r="AC177" t="n">
+      <c r="AD177" t="n">
         <v>176</v>
       </c>
     </row>
@@ -22413,10 +23316,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB178" t="n">
+      <c r="AB178" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC178" t="n">
         <v>2021</v>
       </c>
-      <c r="AC178" t="n">
+      <c r="AD178" t="n">
         <v>177</v>
       </c>
     </row>
@@ -22494,7 +23402,7 @@
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>ticks</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
@@ -22536,10 +23444,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB179" t="n">
+      <c r="AB179" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC179" t="n">
         <v>2019</v>
       </c>
-      <c r="AC179" t="n">
+      <c r="AD179" t="n">
         <v>178</v>
       </c>
     </row>
@@ -22613,7 +23526,7 @@
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>livestock (sheep) and rodents</t>
+          <t>Livestock and Rodent and Sheep</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
@@ -22655,10 +23568,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB180" t="n">
+      <c r="AB180" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC180" t="n">
         <v>2020</v>
       </c>
-      <c r="AC180" t="n">
+      <c r="AD180" t="n">
         <v>179</v>
       </c>
     </row>
@@ -22779,10 +23697,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB181" t="n">
+      <c r="AB181" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC181" t="n">
         <v>2016</v>
       </c>
-      <c r="AC181" t="n">
+      <c r="AD181" t="n">
         <v>180</v>
       </c>
     </row>
@@ -22856,7 +23779,7 @@
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Homo sapiens,  tick from livestock </t>
+          <t>Homo sapiens and Livestock and Ticks</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr">
@@ -22902,10 +23825,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB182" t="n">
+      <c r="AB182" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC182" t="n">
         <v>2022</v>
       </c>
-      <c r="AC182" t="n">
+      <c r="AD182" t="n">
         <v>181</v>
       </c>
     </row>
@@ -22979,7 +23907,7 @@
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>ticks collected from livestock (cattle)</t>
+          <t>Cattle and Livestock and Ticks</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
@@ -23027,10 +23955,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB183" t="n">
+      <c r="AB183" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC183" t="n">
         <v>2020</v>
       </c>
-      <c r="AC183" t="n">
+      <c r="AD183" t="n">
         <v>182</v>
       </c>
     </row>
@@ -23150,10 +24083,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB184" t="n">
+      <c r="AB184" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC184" t="n">
         <v>2018</v>
       </c>
-      <c r="AC184" t="n">
+      <c r="AD184" t="n">
         <v>183</v>
       </c>
     </row>
@@ -23227,7 +24165,7 @@
       </c>
       <c r="P185" t="inlineStr">
         <is>
-          <t>serow</t>
+          <t>Serow</t>
         </is>
       </c>
       <c r="Q185" t="inlineStr">
@@ -23275,10 +24213,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB185" t="n">
+      <c r="AB185" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC185" t="n">
         <v>2021</v>
       </c>
-      <c r="AC185" t="n">
+      <c r="AD185" t="n">
         <v>184</v>
       </c>
     </row>
@@ -23356,7 +24299,7 @@
       </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>tick</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q186" t="inlineStr">
@@ -23402,10 +24345,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB186" t="n">
+      <c r="AB186" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC186" t="n">
         <v>2021</v>
       </c>
-      <c r="AC186" t="n">
+      <c r="AD186" t="n">
         <v>185</v>
       </c>
     </row>
@@ -23479,7 +24427,7 @@
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>Homo sapiens, ticks</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q187" t="inlineStr">
@@ -23533,10 +24481,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB187" t="n">
+      <c r="AB187" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC187" t="n">
         <v>1995</v>
       </c>
-      <c r="AC187" t="n">
+      <c r="AD187" t="n">
         <v>186</v>
       </c>
     </row>
@@ -23660,10 +24613,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB188" t="n">
+      <c r="AB188" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC188" t="n">
         <v>2011</v>
       </c>
-      <c r="AC188" t="n">
+      <c r="AD188" t="n">
         <v>187</v>
       </c>
     </row>
@@ -23787,8 +24745,13 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB189" t="inlineStr"/>
-      <c r="AC189" t="n">
+      <c r="AB189" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC189" t="inlineStr"/>
+      <c r="AD189" t="n">
         <v>188</v>
       </c>
     </row>
@@ -23862,7 +24825,7 @@
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>Ticks from livestock</t>
+          <t>Livestock and Ticks</t>
         </is>
       </c>
       <c r="Q190" t="inlineStr">
@@ -23912,10 +24875,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB190" t="n">
+      <c r="AB190" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC190" t="n">
         <v>2009</v>
       </c>
-      <c r="AC190" t="n">
+      <c r="AD190" t="n">
         <v>189</v>
       </c>
     </row>
@@ -23989,7 +24957,7 @@
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>Homo sapiens, ticks</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q191" t="inlineStr">
@@ -24043,10 +25011,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB191" t="n">
+      <c r="AB191" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC191" t="n">
         <v>2002</v>
       </c>
-      <c r="AC191" t="n">
+      <c r="AD191" t="n">
         <v>190</v>
       </c>
     </row>
@@ -24120,7 +25093,7 @@
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>Homo sapiens, ticks</t>
+          <t>Homo sapiens and Ticks</t>
         </is>
       </c>
       <c r="Q192" t="inlineStr"/>
@@ -24166,8 +25139,13 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB192" t="inlineStr"/>
-      <c r="AC192" t="n">
+      <c r="AB192" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC192" t="inlineStr"/>
+      <c r="AD192" t="n">
         <v>191</v>
       </c>
     </row>
@@ -24241,7 +25219,7 @@
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>Homo sapiens, rodents</t>
+          <t>Homo sapiens and Rodent</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr">
@@ -24291,10 +25269,15 @@
           <t>brain</t>
         </is>
       </c>
-      <c r="AB193" t="n">
+      <c r="AB193" t="inlineStr">
+        <is>
+          <t>brain</t>
+        </is>
+      </c>
+      <c r="AC193" t="n">
         <v>1979</v>
       </c>
-      <c r="AC193" t="n">
+      <c r="AD193" t="n">
         <v>192</v>
       </c>
     </row>
@@ -24368,7 +25351,7 @@
       </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>ticks, rodent organs, and sheep blood</t>
+          <t>Rodent and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q194" t="inlineStr">
@@ -24418,10 +25401,15 @@
           <t>blood</t>
         </is>
       </c>
-      <c r="AB194" t="n">
+      <c r="AB194" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC194" t="n">
         <v>2004</v>
       </c>
-      <c r="AC194" t="n">
+      <c r="AD194" t="n">
         <v>193</v>
       </c>
     </row>
@@ -24471,7 +25459,7 @@
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="Q195" t="inlineStr">
@@ -24508,10 +25496,23 @@
       </c>
       <c r="X195" t="inlineStr"/>
       <c r="Y195" t="inlineStr"/>
-      <c r="Z195" t="inlineStr"/>
-      <c r="AA195" t="inlineStr"/>
-      <c r="AB195" t="inlineStr"/>
-      <c r="AC195" t="n">
+      <c r="Z195" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AA195" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AB195" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC195" t="inlineStr"/>
+      <c r="AD195" t="n">
         <v>194</v>
       </c>
     </row>
@@ -24561,7 +25562,7 @@
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="Q196" t="inlineStr">
@@ -24597,10 +25598,23 @@
       </c>
       <c r="X196" t="inlineStr"/>
       <c r="Y196" t="inlineStr"/>
-      <c r="Z196" t="inlineStr"/>
-      <c r="AA196" t="inlineStr"/>
-      <c r="AB196" t="inlineStr"/>
-      <c r="AC196" t="n">
+      <c r="Z196" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AA196" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AB196" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC196" t="inlineStr"/>
+      <c r="AD196" t="n">
         <v>195</v>
       </c>
     </row>
@@ -24650,7 +25664,7 @@
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr"/>
@@ -24682,10 +25696,23 @@
       </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
-      <c r="Z197" t="inlineStr"/>
-      <c r="AA197" t="inlineStr"/>
-      <c r="AB197" t="inlineStr"/>
-      <c r="AC197" t="n">
+      <c r="Z197" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AA197" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB197" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC197" t="inlineStr"/>
+      <c r="AD197" t="n">
         <v>196</v>
       </c>
     </row>
@@ -24735,7 +25762,7 @@
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="Q198" t="inlineStr"/>
@@ -24771,10 +25798,23 @@
       </c>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
-      <c r="AA198" t="inlineStr"/>
-      <c r="AB198" t="inlineStr"/>
-      <c r="AC198" t="n">
+      <c r="Z198" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AA198" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB198" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC198" t="inlineStr"/>
+      <c r="AD198" t="n">
         <v>197</v>
       </c>
     </row>
@@ -24824,7 +25864,7 @@
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="Q199" t="inlineStr"/>
@@ -24856,10 +25896,23 @@
       </c>
       <c r="X199" t="inlineStr"/>
       <c r="Y199" t="inlineStr"/>
-      <c r="Z199" t="inlineStr"/>
-      <c r="AA199" t="inlineStr"/>
-      <c r="AB199" t="inlineStr"/>
-      <c r="AC199" t="n">
+      <c r="Z199" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AA199" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AB199" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC199" t="inlineStr"/>
+      <c r="AD199" t="n">
         <v>198</v>
       </c>
     </row>
@@ -24909,7 +25962,7 @@
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="Q200" t="inlineStr">
@@ -24945,10 +25998,23 @@
       </c>
       <c r="X200" t="inlineStr"/>
       <c r="Y200" t="inlineStr"/>
-      <c r="Z200" t="inlineStr"/>
-      <c r="AA200" t="inlineStr"/>
-      <c r="AB200" t="inlineStr"/>
-      <c r="AC200" t="n">
+      <c r="Z200" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AA200" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AB200" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC200" t="inlineStr"/>
+      <c r="AD200" t="n">
         <v>199</v>
       </c>
     </row>
@@ -24998,7 +26064,7 @@
       </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="Q201" t="inlineStr">
@@ -25034,10 +26100,23 @@
       </c>
       <c r="X201" t="inlineStr"/>
       <c r="Y201" t="inlineStr"/>
-      <c r="Z201" t="inlineStr"/>
-      <c r="AA201" t="inlineStr"/>
-      <c r="AB201" t="inlineStr"/>
-      <c r="AC201" t="n">
+      <c r="Z201" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AA201" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AB201" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC201" t="inlineStr"/>
+      <c r="AD201" t="n">
         <v>200</v>
       </c>
     </row>
@@ -25087,7 +26166,7 @@
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="Q202" t="inlineStr">
@@ -25119,10 +26198,23 @@
       </c>
       <c r="X202" t="inlineStr"/>
       <c r="Y202" t="inlineStr"/>
-      <c r="Z202" t="inlineStr"/>
-      <c r="AA202" t="inlineStr"/>
-      <c r="AB202" t="inlineStr"/>
-      <c r="AC202" t="n">
+      <c r="Z202" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AA202" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB202" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC202" t="inlineStr"/>
+      <c r="AD202" t="n">
         <v>201</v>
       </c>
     </row>
@@ -25172,7 +26264,7 @@
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr">
@@ -25208,10 +26300,23 @@
       </c>
       <c r="X203" t="inlineStr"/>
       <c r="Y203" t="inlineStr"/>
-      <c r="Z203" t="inlineStr"/>
-      <c r="AA203" t="inlineStr"/>
-      <c r="AB203" t="inlineStr"/>
-      <c r="AC203" t="n">
+      <c r="Z203" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AA203" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AB203" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC203" t="inlineStr"/>
+      <c r="AD203" t="n">
         <v>202</v>
       </c>
     </row>
@@ -25261,7 +26366,7 @@
       </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>camels and attached ticks</t>
+          <t>Camel and Ticks</t>
         </is>
       </c>
       <c r="Q204" t="inlineStr">
@@ -25297,10 +26402,23 @@
       </c>
       <c r="X204" t="inlineStr"/>
       <c r="Y204" t="inlineStr"/>
-      <c r="Z204" t="inlineStr"/>
-      <c r="AA204" t="inlineStr"/>
-      <c r="AB204" t="inlineStr"/>
-      <c r="AC204" t="n">
+      <c r="Z204" t="inlineStr">
+        <is>
+          <t>Camel and Ticks</t>
+        </is>
+      </c>
+      <c r="AA204" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AB204" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC204" t="inlineStr"/>
+      <c r="AD204" t="n">
         <v>203</v>
       </c>
     </row>
@@ -25350,7 +26468,7 @@
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>humans, cattle, sheep, goats, and ticks from the ground</t>
+          <t>Cattle and Goat and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q205" t="inlineStr">
@@ -25386,10 +26504,23 @@
       </c>
       <c r="X205" t="inlineStr"/>
       <c r="Y205" t="inlineStr"/>
-      <c r="Z205" t="inlineStr"/>
-      <c r="AA205" t="inlineStr"/>
-      <c r="AB205" t="inlineStr"/>
-      <c r="AC205" t="n">
+      <c r="Z205" t="inlineStr">
+        <is>
+          <t>Cattle and Goat and Sheep and Ticks</t>
+        </is>
+      </c>
+      <c r="AA205" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB205" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC205" t="inlineStr"/>
+      <c r="AD205" t="n">
         <v>204</v>
       </c>
     </row>
@@ -25439,7 +26570,7 @@
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>human, animal-based processes like suckling mouse brains</t>
+          <t>Animal and Mouse</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr">
@@ -25475,10 +26606,23 @@
       </c>
       <c r="X206" t="inlineStr"/>
       <c r="Y206" t="inlineStr"/>
-      <c r="Z206" t="inlineStr"/>
-      <c r="AA206" t="inlineStr"/>
-      <c r="AB206" t="inlineStr"/>
-      <c r="AC206" t="n">
+      <c r="Z206" t="inlineStr">
+        <is>
+          <t>Animal and Mouse</t>
+        </is>
+      </c>
+      <c r="AA206" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB206" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC206" t="inlineStr"/>
+      <c r="AD206" t="n">
         <v>205</v>
       </c>
     </row>
@@ -25524,7 +26668,7 @@
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="inlineStr">
         <is>
-          <t>white-toothed shrew</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr">
@@ -25560,10 +26704,23 @@
       </c>
       <c r="X207" t="inlineStr"/>
       <c r="Y207" t="inlineStr"/>
-      <c r="Z207" t="inlineStr"/>
-      <c r="AA207" t="inlineStr"/>
-      <c r="AB207" t="inlineStr"/>
-      <c r="AC207" t="n">
+      <c r="Z207" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AA207" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB207" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC207" t="inlineStr"/>
+      <c r="AD207" t="n">
         <v>206</v>
       </c>
     </row>
@@ -25633,7 +26790,7 @@
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="inlineStr">
         <is>
-          <t>bacteriophages</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr">
@@ -25669,10 +26826,23 @@
       </c>
       <c r="X208" t="inlineStr"/>
       <c r="Y208" t="inlineStr"/>
-      <c r="Z208" t="inlineStr"/>
-      <c r="AA208" t="inlineStr"/>
-      <c r="AB208" t="inlineStr"/>
-      <c r="AC208" t="n">
+      <c r="Z208" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AA208" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB208" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC208" t="inlineStr"/>
+      <c r="AD208" t="n">
         <v>207</v>
       </c>
     </row>
@@ -25720,7 +26890,11 @@
           <t>4</t>
         </is>
       </c>
-      <c r="P209" t="inlineStr"/>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Q209" t="inlineStr"/>
       <c r="R209" t="inlineStr">
         <is>
@@ -25750,10 +26924,23 @@
       </c>
       <c r="X209" t="inlineStr"/>
       <c r="Y209" t="inlineStr"/>
-      <c r="Z209" t="inlineStr"/>
-      <c r="AA209" t="inlineStr"/>
-      <c r="AB209" t="inlineStr"/>
-      <c r="AC209" t="n">
+      <c r="Z209" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AA209" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB209" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC209" t="inlineStr"/>
+      <c r="AD209" t="n">
         <v>208</v>
       </c>
     </row>
@@ -25803,7 +26990,7 @@
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr">
@@ -25837,10 +27024,23 @@
       </c>
       <c r="X210" t="inlineStr"/>
       <c r="Y210" t="inlineStr"/>
-      <c r="Z210" t="inlineStr"/>
-      <c r="AA210" t="inlineStr"/>
-      <c r="AB210" t="inlineStr"/>
-      <c r="AC210" t="n">
+      <c r="Z210" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AA210" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AB210" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="AC210" t="inlineStr"/>
+      <c r="AD210" t="n">
         <v>209</v>
       </c>
     </row>
@@ -25886,7 +27086,7 @@
       <c r="O211" t="inlineStr"/>
       <c r="P211" t="inlineStr">
         <is>
-          <t>cattle, buffalo, sheep, and goats</t>
+          <t>Buffalo and Cattle and Goat and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q211" t="inlineStr">
@@ -25922,10 +27122,23 @@
       </c>
       <c r="X211" t="inlineStr"/>
       <c r="Y211" t="inlineStr"/>
-      <c r="Z211" t="inlineStr"/>
-      <c r="AA211" t="inlineStr"/>
-      <c r="AB211" t="inlineStr"/>
-      <c r="AC211" t="n">
+      <c r="Z211" t="inlineStr">
+        <is>
+          <t>Buffalo and Cattle and Goat and Sheep and Ticks</t>
+        </is>
+      </c>
+      <c r="AA211" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB211" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC211" t="inlineStr"/>
+      <c r="AD211" t="n">
         <v>210</v>
       </c>
     </row>
@@ -25975,7 +27188,7 @@
       </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="Q212" t="inlineStr">
@@ -26007,10 +27220,23 @@
       </c>
       <c r="X212" t="inlineStr"/>
       <c r="Y212" t="inlineStr"/>
-      <c r="Z212" t="inlineStr"/>
-      <c r="AA212" t="inlineStr"/>
-      <c r="AB212" t="inlineStr"/>
-      <c r="AC212" t="n">
+      <c r="Z212" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AA212" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB212" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC212" t="inlineStr"/>
+      <c r="AD212" t="n">
         <v>211</v>
       </c>
     </row>
@@ -26060,7 +27286,7 @@
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>ticks, antelope</t>
+          <t>Ticks</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr">
@@ -26096,10 +27322,23 @@
       </c>
       <c r="X213" t="inlineStr"/>
       <c r="Y213" t="inlineStr"/>
-      <c r="Z213" t="inlineStr"/>
-      <c r="AA213" t="inlineStr"/>
-      <c r="AB213" t="inlineStr"/>
-      <c r="AC213" t="n">
+      <c r="Z213" t="inlineStr">
+        <is>
+          <t>Ticks</t>
+        </is>
+      </c>
+      <c r="AA213" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB213" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC213" t="inlineStr"/>
+      <c r="AD213" t="n">
         <v>212</v>
       </c>
     </row>
@@ -26145,7 +27384,7 @@
       <c r="O214" t="inlineStr"/>
       <c r="P214" t="inlineStr">
         <is>
-          <t>wild sheep, hares, guinea fowls, chickens, and a turkey</t>
+          <t>Hare and Sheep and Ticks</t>
         </is>
       </c>
       <c r="Q214" t="inlineStr">
@@ -26181,10 +27420,23 @@
       </c>
       <c r="X214" t="inlineStr"/>
       <c r="Y214" t="inlineStr"/>
-      <c r="Z214" t="inlineStr"/>
-      <c r="AA214" t="inlineStr"/>
-      <c r="AB214" t="inlineStr"/>
-      <c r="AC214" t="n">
+      <c r="Z214" t="inlineStr">
+        <is>
+          <t>Hare and Sheep and Ticks</t>
+        </is>
+      </c>
+      <c r="AA214" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB214" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC214" t="inlineStr"/>
+      <c r="AD214" t="n">
         <v>213</v>
       </c>
     </row>
